--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H2">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I2">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J2">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N2">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P2">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q2">
-        <v>128.402079901956</v>
+        <v>172.1733347778633</v>
       </c>
       <c r="R2">
-        <v>1155.618719117604</v>
+        <v>1549.56001300077</v>
       </c>
       <c r="S2">
-        <v>0.03147261054222456</v>
+        <v>0.02328352367401717</v>
       </c>
       <c r="T2">
-        <v>0.03147261054222456</v>
+        <v>0.02328352367401717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H3">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I3">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J3">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.692871</v>
       </c>
       <c r="O3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P3">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q3">
-        <v>1693.708191830457</v>
+        <v>2606.100844150117</v>
       </c>
       <c r="R3">
-        <v>15243.37372647411</v>
+        <v>23454.90759735106</v>
       </c>
       <c r="S3">
-        <v>0.415144508051254</v>
+        <v>0.3524309428050123</v>
       </c>
       <c r="T3">
-        <v>0.415144508051254</v>
+        <v>0.3524309428050123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H4">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I4">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J4">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N4">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P4">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q4">
-        <v>1387.498154980824</v>
+        <v>2750.298316089828</v>
       </c>
       <c r="R4">
-        <v>12487.48339482742</v>
+        <v>24752.68484480845</v>
       </c>
       <c r="S4">
-        <v>0.3400894213949675</v>
+        <v>0.3719312054674821</v>
       </c>
       <c r="T4">
-        <v>0.3400894213949675</v>
+        <v>0.3719312054674821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.253501</v>
+        <v>45.01222466666667</v>
       </c>
       <c r="H5">
-        <v>87.760503</v>
+        <v>135.036674</v>
       </c>
       <c r="I5">
-        <v>0.7876335333413836</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="J5">
-        <v>0.7876335333413838</v>
+        <v>0.7482903203664146</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N5">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P5">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q5">
-        <v>3.781951116282</v>
+        <v>4.766944632948889</v>
       </c>
       <c r="R5">
-        <v>34.037560046538</v>
+        <v>42.90250169654</v>
       </c>
       <c r="S5">
-        <v>0.000926993352937592</v>
+        <v>0.0006446484199030854</v>
       </c>
       <c r="T5">
-        <v>0.0009269933529375923</v>
+        <v>0.0006446484199030854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H6">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I6">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J6">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N6">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P6">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q6">
-        <v>13.77519787099245</v>
+        <v>10.58117774534833</v>
       </c>
       <c r="R6">
-        <v>123.976780838932</v>
+        <v>95.230599708135</v>
       </c>
       <c r="S6">
-        <v>0.003376436254512897</v>
+        <v>0.001430924845886631</v>
       </c>
       <c r="T6">
-        <v>0.003376436254512898</v>
+        <v>0.001430924845886632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H7">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I7">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J7">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>173.692871</v>
       </c>
       <c r="O7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P7">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q7">
-        <v>181.7039528954699</v>
+        <v>160.1619454593975</v>
       </c>
       <c r="R7">
-        <v>1635.335576059229</v>
+        <v>1441.457509134577</v>
       </c>
       <c r="S7">
-        <v>0.04453742297498971</v>
+        <v>0.0216591869675512</v>
       </c>
       <c r="T7">
-        <v>0.04453742297498972</v>
+        <v>0.0216591869675512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H8">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I8">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J8">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N8">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P8">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q8">
-        <v>148.8532089596365</v>
+        <v>169.0238234208861</v>
       </c>
       <c r="R8">
-        <v>1339.678880636728</v>
+        <v>1521.214410787975</v>
       </c>
       <c r="S8">
-        <v>0.03648538308043126</v>
+        <v>0.02285760567494735</v>
       </c>
       <c r="T8">
-        <v>0.03648538308043128</v>
+        <v>0.02285760567494736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.138366333333334</v>
+        <v>2.766295666666667</v>
       </c>
       <c r="H9">
-        <v>9.415099000000001</v>
+        <v>8.298887000000001</v>
       </c>
       <c r="I9">
-        <v>0.08449869176489255</v>
+        <v>0.04598733535094824</v>
       </c>
       <c r="J9">
-        <v>0.08449869176489258</v>
+        <v>0.04598733535094825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N9">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P9">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q9">
-        <v>0.4057342763060001</v>
+        <v>0.2929599320855555</v>
       </c>
       <c r="R9">
-        <v>3.651608486754001</v>
+        <v>2.63663938877</v>
       </c>
       <c r="S9">
-        <v>9.944945495867737E-05</v>
+        <v>3.961786256305644E-05</v>
       </c>
       <c r="T9">
-        <v>9.944945495867742E-05</v>
+        <v>3.961786256305644E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H10">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J10">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>4.389289333333333</v>
+        <v>3.825035</v>
       </c>
       <c r="N10">
-        <v>13.167868</v>
+        <v>11.475105</v>
       </c>
       <c r="O10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="P10">
-        <v>0.03995844413671427</v>
+        <v>0.03111562857396839</v>
       </c>
       <c r="Q10">
-        <v>20.84533930283155</v>
+        <v>47.33443837161666</v>
       </c>
       <c r="R10">
-        <v>187.608053725484</v>
+        <v>426.00994534455</v>
       </c>
       <c r="S10">
-        <v>0.005109397339976812</v>
+        <v>0.006401180054064586</v>
       </c>
       <c r="T10">
-        <v>0.005109397339976813</v>
+        <v>0.006401180054064586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H11">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I11">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J11">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.692871</v>
       </c>
       <c r="O11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="P11">
-        <v>0.5270782546422107</v>
+        <v>0.4709815605157605</v>
       </c>
       <c r="Q11">
-        <v>274.9637853658581</v>
+        <v>716.4774961047123</v>
       </c>
       <c r="R11">
-        <v>2474.674068292722</v>
+        <v>6448.29746494241</v>
       </c>
       <c r="S11">
-        <v>0.06739632361596697</v>
+        <v>0.09689143074319698</v>
       </c>
       <c r="T11">
-        <v>0.06739632361596698</v>
+        <v>0.09689143074319698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H12">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I12">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J12">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.43015733333333</v>
+        <v>61.10114166666667</v>
       </c>
       <c r="N12">
-        <v>142.290472</v>
+        <v>183.303425</v>
       </c>
       <c r="O12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="P12">
-        <v>0.4317863663729546</v>
+        <v>0.4970413158429724</v>
       </c>
       <c r="Q12">
-        <v>225.2523467276595</v>
+        <v>756.1207216813057</v>
       </c>
       <c r="R12">
-        <v>2027.271120548936</v>
+        <v>6805.08649513175</v>
       </c>
       <c r="S12">
-        <v>0.05521156189755586</v>
+        <v>0.102252504700543</v>
       </c>
       <c r="T12">
-        <v>0.05521156189755587</v>
+        <v>0.102252504700543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.749137666666666</v>
+        <v>12.37490333333333</v>
       </c>
       <c r="H13">
-        <v>14.247413</v>
+        <v>37.12471</v>
       </c>
       <c r="I13">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="J13">
-        <v>0.1278677748937237</v>
+        <v>0.2057223442826371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.129282</v>
+        <v>0.1059033333333333</v>
       </c>
       <c r="N13">
-        <v>0.387846</v>
+        <v>0.31771</v>
       </c>
       <c r="O13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="P13">
-        <v>0.001176934848120294</v>
+        <v>0.0008614950672987739</v>
       </c>
       <c r="Q13">
-        <v>0.613978015822</v>
+        <v>1.310543512677778</v>
       </c>
       <c r="R13">
-        <v>5.525802142398</v>
+        <v>11.7948916141</v>
       </c>
       <c r="S13">
-        <v>0.0001504920402240246</v>
+        <v>0.000177228784832632</v>
       </c>
       <c r="T13">
-        <v>0.0001504920402240247</v>
+        <v>0.000177228784832632</v>
       </c>
     </row>
   </sheetData>
